--- a/Angular.xlsx
+++ b/Angular.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ganesh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="7956"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="387">
-  <si>
-    <t xml:space="preserve">       Q  text</t>
-  </si>
-  <si>
-    <t>Correct Answer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="381">
   <si>
     <t>What are the features of the Angular?</t>
   </si>
@@ -270,18 +264,6 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;stylesheet&gt;mystyle.css&lt;/stylesheet /&gt;</t>
-  </si>
-  <si>
-    <t>Option A</t>
-  </si>
-  <si>
-    <t>Option  B</t>
-  </si>
-  <si>
-    <t>Option  C</t>
-  </si>
-  <si>
-    <t>Option D</t>
   </si>
   <si>
     <t>B,C</t>
@@ -1279,18 +1261,12 @@
       <name val="Roboto Condensed"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1391,14 +1367,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,7 +1402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,7 +1455,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1871,1601 +1841,1581 @@
     <col min="9" max="9" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
+    <row r="1" spans="1:6" ht="16.2">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.2">
       <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.2">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32.4">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32.4">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.2">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.2">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32.4">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="11" spans="1:6" ht="16.2">
+      <c r="A11" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.2">
+      <c r="A12" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.2">
+      <c r="A13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="F13" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32.4">
+      <c r="A14" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32.4">
+      <c r="A15" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.2">
+      <c r="A16" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.2">
+      <c r="A17" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.2">
+      <c r="A18" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="32">
+        <v>14</v>
+      </c>
+      <c r="C18" s="32">
+        <v>12</v>
+      </c>
+      <c r="D18" s="32">
+        <v>13</v>
+      </c>
+      <c r="E18" s="33">
+        <v>15</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.2">
+      <c r="A19" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32.4">
+      <c r="A20" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.2">
+      <c r="A21" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.2">
+      <c r="A22" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.2">
+      <c r="A23" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32.4">
+      <c r="A24" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="13" t="s">
+    <row r="25" spans="1:6" ht="16.2">
+      <c r="A25" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.2">
+      <c r="A26" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.2">
+      <c r="A27" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.2">
+      <c r="A28" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32.4">
+      <c r="A29" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.2">
+      <c r="A30" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.2">
+      <c r="A31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.2">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="48.6">
+      <c r="A33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="32.4">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.2">
+      <c r="A34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.4">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C34" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.2">
+      <c r="A35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2">
-      <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C35" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.2">
+      <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.2">
+      <c r="A37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.2">
-      <c r="A10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32.4">
-      <c r="A11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="C37" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="32.4">
+      <c r="A38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2">
-      <c r="A12" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2">
-      <c r="A13" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.2">
-      <c r="A14" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="32.4">
-      <c r="A15" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="32.4">
-      <c r="A16" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.2">
-      <c r="A17" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.2">
-      <c r="A18" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.2">
-      <c r="A19" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="34">
-        <v>14</v>
-      </c>
-      <c r="C19" s="34">
-        <v>12</v>
-      </c>
-      <c r="D19" s="34">
-        <v>13</v>
-      </c>
-      <c r="E19" s="35">
-        <v>15</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.2">
-      <c r="A20" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="32.4">
-      <c r="A21" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.2">
-      <c r="A22" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.2">
-      <c r="A23" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="C38" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="48.6">
+      <c r="A39" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.2">
+      <c r="A40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48.6">
+      <c r="A41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="32.4">
+      <c r="A42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48.6">
+      <c r="A43" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="37" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.2">
-      <c r="A24" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="32.4">
-      <c r="A25" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.2">
-      <c r="A26" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.2">
-      <c r="A27" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.2">
-      <c r="A28" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="E28" s="42" t="s">
+      <c r="E43" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="32.4">
+      <c r="A44" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="F28" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.2">
-      <c r="A29" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="32.4">
-      <c r="A30" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="44" t="s">
+      <c r="B44" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.2">
+      <c r="A45" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="32.4">
+      <c r="A46" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.2">
+      <c r="A47" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.2">
+      <c r="A48" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.2">
+      <c r="A49" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32.4">
+      <c r="A50" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.2">
+      <c r="A51" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.2">
+      <c r="A52" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.2">
+      <c r="A53" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.2">
+      <c r="A54" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.2">
+      <c r="A55" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.2">
+      <c r="A56" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.2">
+      <c r="A57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="32.4">
+      <c r="A58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.2">
+      <c r="A59" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.2">
+      <c r="A60" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.2">
-      <c r="A31" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.2">
-      <c r="A32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.2">
-      <c r="A33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="48.6">
-      <c r="A34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="D60" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.2">
-      <c r="A35" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.2">
-      <c r="A36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.2">
-      <c r="A37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.2">
-      <c r="A38" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="F60" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.2">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="20" t="s">
+      <c r="D61" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="32.4">
-      <c r="A39" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="48.6">
-      <c r="A40" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.2">
-      <c r="A41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="48.6">
-      <c r="A42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="E61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.2">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.2">
+      <c r="A63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="32.4">
+      <c r="A64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="32.4">
+      <c r="A65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="48.6">
+      <c r="A66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="48.6">
+      <c r="A67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="32.4">
-      <c r="A43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="48.6">
-      <c r="A44" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="32.4">
-      <c r="A45" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.2">
-      <c r="A46" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="32.4">
-      <c r="A47" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.2">
-      <c r="A48" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.2">
-      <c r="A49" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="E49" s="42" t="s">
+      <c r="B67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.2">
+      <c r="A68" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="F49" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.2">
-      <c r="A50" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" s="42" t="s">
+      <c r="B68" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.2">
+      <c r="A69" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="F50" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="32.4">
-      <c r="A51" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="D51" s="39" t="s">
+      <c r="B69" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.2">
+      <c r="A70" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.2">
+      <c r="A71" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="E51" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.2">
-      <c r="A52" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="D52" s="34" t="s">
+      <c r="B71" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="32.4">
+      <c r="A72" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="E52" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.2">
-      <c r="A53" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="D53" s="51" t="s">
+      <c r="B72" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="48.6">
+      <c r="A73" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="E53" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.2">
-      <c r="A54" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.2">
-      <c r="A55" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="20" t="s">
+      <c r="B73" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="32.4">
+      <c r="A74" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.2">
+      <c r="A75" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="e">
+        <f>E75:F75</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E75" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.2">
-      <c r="A56" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.2">
-      <c r="A57" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="19" t="s">
+      <c r="F75" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="32.4">
+      <c r="A76" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="32.4">
+      <c r="A77" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.2">
+      <c r="A78" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.2">
-      <c r="A58" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="32.4">
-      <c r="A59" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.2">
-      <c r="A60" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.2">
-      <c r="A61" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16.2">
-      <c r="A62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.2">
-      <c r="A63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.2">
-      <c r="A64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="32.4">
-      <c r="A65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="32.4">
-      <c r="A66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="48.6">
-      <c r="A67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="48.6">
-      <c r="A68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="16.2">
-      <c r="A69" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="E69" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="16.2">
-      <c r="A70" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.2">
-      <c r="A71" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="16.2">
-      <c r="A72" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="32.4">
-      <c r="A73" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="48.6">
-      <c r="A74" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="32.4">
-      <c r="A75" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16.2">
-      <c r="A76" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38" t="e">
-        <f>E76:F76</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="32.4">
-      <c r="A77" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="E77" s="53" t="s">
-        <v>377</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="32.4">
-      <c r="A78" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="E79" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="16.2">
-      <c r="A79" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>85</v>
+      <c r="F79" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
